--- a/src/test/resources/template_evidence.xlsx
+++ b/src/test/resources/template_evidence.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
   <si>
     <t>ＭＥＭ容量</t>
     <rPh sb="3" eb="5">
@@ -336,22 +336,6 @@
   </si>
   <si>
     <t>&lt;/jt:forEach&gt;</t>
-  </si>
-  <si>
-    <t>テスト１</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>テスト２</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>${config.itemName}</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>${config.unitCost}</t>
-    <phoneticPr fontId="23"/>
   </si>
   <si>
     <t>&lt;jt:forEach items="${evidence.configs}" var="config"&gt;</t>
@@ -2087,6 +2071,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="50" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="50" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="50" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="50" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="50" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="50" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2099,77 +2143,17 @@
     <xf numFmtId="0" fontId="0" fillId="50" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="50" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="50" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="50" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="50" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="50" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="50" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="50" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="192">
@@ -2754,10 +2738,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS66"/>
+  <dimension ref="A1:AQ66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2767,198 +2751,192 @@
     <col min="3" max="3" width="1.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.875" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.25" style="4" customWidth="1"/>
-    <col min="15" max="15" width="9.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="11.25" style="13" customWidth="1"/>
-    <col min="19" max="19" width="21.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.25" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.25" style="13" customWidth="1"/>
+    <col min="17" max="17" width="21.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8.125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14" style="2" customWidth="1"/>
-    <col min="31" max="31" width="11.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="6.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.875" style="1" customWidth="1"/>
-    <col min="36" max="36" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14" style="2" customWidth="1"/>
+    <col min="29" max="29" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.875" style="1" customWidth="1"/>
+    <col min="34" max="34" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.5" style="1" customWidth="1"/>
+    <col min="37" max="37" width="12.875" style="1" customWidth="1"/>
     <col min="38" max="38" width="8.5" style="1" customWidth="1"/>
-    <col min="39" max="39" width="12.875" style="1" customWidth="1"/>
+    <col min="39" max="39" width="11.75" style="1" customWidth="1"/>
     <col min="40" max="40" width="8.5" style="1" customWidth="1"/>
     <col min="41" max="41" width="11.75" style="1" customWidth="1"/>
-    <col min="42" max="42" width="8.5" style="1" customWidth="1"/>
-    <col min="43" max="43" width="11.75" style="1" customWidth="1"/>
-    <col min="44" max="44" width="16" style="1" customWidth="1"/>
-    <col min="45" max="45" width="32.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9" style="1"/>
-    <col min="47" max="47" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="9" style="1"/>
-    <col min="50" max="50" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="16384" width="9" style="1"/>
+    <col min="42" max="42" width="16" style="1" customWidth="1"/>
+    <col min="43" max="43" width="32.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9" style="1"/>
+    <col min="45" max="45" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="9" style="1"/>
+    <col min="48" max="48" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:43" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
     </row>
-    <row r="2" spans="1:45" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="8"/>
-      <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:45" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:43" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
-      <c r="D3" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="43" t="s">
+      <c r="D3" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="E3" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="F3" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="G3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="H3" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="I3" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="J3" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="66" t="s">
+      <c r="K3" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="66" t="s">
+      <c r="L3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="53" t="s">
+      <c r="M3" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="53" t="s">
+      <c r="N3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="O3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="P3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="49" t="s">
+      <c r="Q3" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="49" t="s">
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="69" t="s">
+      <c r="V3" s="45"/>
+      <c r="W3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Z3" s="70"/>
-      <c r="AA3" s="49" t="s">
+      <c r="X3" s="47"/>
+      <c r="Y3" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="49" t="s">
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AD3" s="50"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD3" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="AE3" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF3" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AI3" s="60" t="s">
+      <c r="AG3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="AJ3" s="62" t="s">
+      <c r="AH3" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="AK3" s="51" t="s">
+      <c r="AI3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AL3" s="64" t="s">
+      <c r="AJ3" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="58" t="s">
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="64" t="s">
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="AQ3" s="65"/>
-      <c r="AR3" s="56" t="s">
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="51" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:45" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:43" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="28" t="s">
+      <c r="D4" s="64"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="28" t="s">
         <v>4</v>
       </c>
+      <c r="R4" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="29" t="s">
+        <v>2</v>
+      </c>
       <c r="T4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="U4" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" s="29" t="s">
         <v>5</v>
-      </c>
-      <c r="U4" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="V4" s="29" t="s">
-        <v>17</v>
       </c>
       <c r="W4" s="28" t="s">
         <v>4</v>
@@ -2969,7 +2947,7 @@
       <c r="Y4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="Z4" s="29" t="s">
+      <c r="Z4" s="30" t="s">
         <v>5</v>
       </c>
       <c r="AA4" s="28" t="s">
@@ -2978,329 +2956,302 @@
       <c r="AB4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD4" s="30" t="s">
+      <c r="AC4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AE4" s="29" t="s">
+      <c r="AD4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AF4" s="29" t="s">
+      <c r="AE4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AG4" s="30" t="s">
+      <c r="AF4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AH4" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI4" s="61"/>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="52"/>
-      <c r="AL4" s="31" t="s">
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="AM4" s="32" t="s">
+      <c r="AK4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AN4" s="33" t="s">
+      <c r="AL4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AO4" s="30" t="s">
+      <c r="AM4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="AP4" s="31" t="s">
+      <c r="AN4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="AQ4" s="32" t="s">
+      <c r="AO4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AR4" s="57"/>
+      <c r="AP4" s="52"/>
     </row>
-    <row r="5" spans="1:45" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3"/>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="G5" s="17" t="s">
         <v>37</v>
       </c>
+      <c r="H5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="N5" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="35" t="s">
+      <c r="O5" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="R5" s="35" t="s">
+      <c r="P5" s="35" t="s">
         <v>46</v>
       </c>
+      <c r="Q5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="S5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="V5" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="W5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X5" s="7" t="s">
+      <c r="V5" s="7" t="s">
         <v>52</v>
       </c>
+      <c r="W5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="Y5" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AG5" s="5" t="s">
+      <c r="AE5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AH5" s="9" t="s">
+      <c r="AF5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AI5" s="36" t="s">
+      <c r="AG5" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="AJ5" s="7" t="s">
+      <c r="AH5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AK5" s="37" t="s">
+      <c r="AI5" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="AL5" s="38" t="s">
+      <c r="AJ5" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="AM5" s="39" t="s">
+      <c r="AK5" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="AN5" s="36" t="s">
+      <c r="AL5" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="AO5" s="17" t="s">
+      <c r="AM5" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="AP5" s="38" t="s">
+      <c r="AN5" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="AQ5" s="39" t="s">
+      <c r="AO5" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="AR5" s="23" t="s">
+      <c r="AP5" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AS5" s="1" t="s">
+      <c r="AQ5" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="14"/>
       <c r="E6" s="40"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
       <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
+      <c r="T6" s="21"/>
       <c r="U6" s="10"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
       <c r="Z6" s="11"/>
       <c r="AA6" s="11"/>
       <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
+      <c r="AC6" s="10"/>
       <c r="AD6" s="11"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="42"/>
-      <c r="AL6" s="18"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="20"/>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="18"/>
-      <c r="AQ6" s="19"/>
-      <c r="AR6" s="22"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="42"/>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="22"/>
     </row>
-    <row r="7" spans="1:45" ht="24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:43" ht="24" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="8"/>
-      <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:45" ht="24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:43" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="8"/>
-      <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:45" ht="24" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:43" ht="24" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="8"/>
-      <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:45" ht="24" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:43" ht="24" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="8"/>
-      <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:45" ht="24" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:43" ht="24" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="8"/>
-      <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:45" ht="24" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:43" ht="24" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="8"/>
-      <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:45" ht="24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:43" ht="24" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="8"/>
-      <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:45" ht="24" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:43" ht="24" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="8"/>
-      <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:45" ht="24" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:43" ht="24" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="8"/>
-      <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:45" ht="24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:43" ht="24" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="8"/>
-      <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="24" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="8"/>
-      <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="24" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="8"/>
-      <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="24" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="8"/>
-      <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3336,33 +3287,31 @@
     <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="AB1:AD1"/>
+  <mergeCells count="24">
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="AR3:AR4"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AK3:AK4"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="K3:K4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <phoneticPr fontId="23"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
